--- a/data/trans_orig/SALUD_GEN_PER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en País Vasco</t>
+          <t>Salud general percibida en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4771,7 +4771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Andalucia</t>
+          <t>Salud general percibida en Andalucia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8996,7 +8996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en C.Valenciana</t>
+          <t>Salud general percibida en C.Valenciana (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13221,7 +13221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Salud general percibida en Barcelona</t>
+          <t>Salud general percibida en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SALUD_GEN_PER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SALUD_GEN_PER-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>2854</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>5372</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6477</t>
+          <t>9026</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8025</t>
+          <t>14491</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5895</t>
+          <t>9505</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10553</t>
+          <t>22545</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>13770</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6112</t>
+          <t>9544</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10747</t>
+          <t>19248</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>15908</t>
+          <t>28260</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>12845</t>
+          <t>20930</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>19742</t>
+          <t>37580</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33779</t>
+          <t>72352</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30246</t>
+          <t>63473</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37942</t>
+          <t>82847</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32878</t>
+          <t>78771</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28954</t>
+          <t>69629</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36791</t>
+          <t>89126</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>66658</t>
+          <t>151122</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>61848</t>
+          <t>138379</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>72678</t>
+          <t>164919</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33423</t>
+          <t>85357</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29643</t>
+          <t>75032</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37108</t>
+          <t>95135</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>48,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36868</t>
+          <t>94355</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32936</t>
+          <t>84751</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40836</t>
+          <t>104164</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>54,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>70291</t>
+          <t>179711</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>64628</t>
+          <t>165488</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>75693</t>
+          <t>193800</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>45,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>53,15%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77517</t>
+          <t>174855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>79422</t>
+          <t>189749</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>156939</t>
+          <t>364604</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>715</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>960</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2695</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4949</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>10688</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3169</t>
+          <t>7363</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>16382</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7569</t>
+          <t>12148</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10153</t>
+          <t>16779</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12335</t>
+          <t>22835</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9625</t>
+          <t>17571</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15489</t>
+          <t>29190</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20972</t>
+          <t>46421</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18112</t>
+          <t>39252</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24104</t>
+          <t>54517</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29100</t>
+          <t>51859</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25518</t>
+          <t>44717</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32304</t>
+          <t>58769</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>50071</t>
+          <t>98281</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>45804</t>
+          <t>87966</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>54468</t>
+          <t>110260</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>48,96%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18524</t>
+          <t>46074</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15787</t>
+          <t>38572</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21668</t>
+          <t>53902</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>24367</t>
+          <t>55299</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>21117</t>
+          <t>48632</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>27856</t>
+          <t>63340</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>42891</t>
+          <t>101373</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>38657</t>
+          <t>90376</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>47305</t>
+          <t>112147</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>49,8%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45189</t>
+          <t>103898</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>62653</t>
+          <t>121286</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107842</t>
+          <t>225185</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2614</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4090</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>6132</t>
+          <t>10191</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12801</t>
+          <t>24964</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10082</t>
+          <t>19480</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16143</t>
+          <t>33091</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>13380</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>9908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10462</t>
+          <t>17967</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>20862</t>
+          <t>38345</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16967</t>
+          <t>30644</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>24511</t>
+          <t>47043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40243</t>
+          <t>63896</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>36243</t>
+          <t>56142</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44269</t>
+          <t>72105</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14579</t>
+          <t>20932</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12213</t>
+          <t>16664</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17361</t>
+          <t>25171</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>54822</t>
+          <t>84827</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>50155</t>
+          <t>75150</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>60174</t>
+          <t>93431</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>45,34%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27608</t>
+          <t>59482</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23851</t>
+          <t>50906</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31507</t>
+          <t>67805</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>44,69%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>17448</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6710</t>
+          <t>13531</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10964</t>
+          <t>22877</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>36475</t>
+          <t>76931</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>32227</t>
+          <t>66888</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>40995</t>
+          <t>86312</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>82532</t>
+          <t>151709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>54374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>116249</t>
+          <t>206083</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4394</t>
+          <t>7598</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2782</t>
+          <t>4991</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>12265</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3053</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5020</t>
+          <t>9370</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>7448</t>
+          <t>13247</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>9516</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10163</t>
+          <t>18358</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15950</t>
+          <t>29645</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12960</t>
+          <t>23275</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19486</t>
+          <t>36585</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>24110</t>
+          <t>42864</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>20624</t>
+          <t>35810</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>27779</t>
+          <t>51459</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>40060</t>
+          <t>72509</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>35415</t>
+          <t>62060</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>44863</t>
+          <t>83758</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>22,9%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38949</t>
+          <t>74319</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>34930</t>
+          <t>64607</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>43057</t>
+          <t>83849</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,5%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>40534</t>
+          <t>76421</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>36467</t>
+          <t>66455</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44659</t>
+          <t>86772</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>79483</t>
+          <t>150740</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>74343</t>
+          <t>136778</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>85973</t>
+          <t>163671</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>44,75%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26950</t>
+          <t>67091</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23469</t>
+          <t>57833</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31178</t>
+          <t>77780</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26649</t>
+          <t>62170</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>22587</t>
+          <t>53374</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>30473</t>
+          <t>72373</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>53600</t>
+          <t>129261</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>48604</t>
+          <t>116881</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>58828</t>
+          <t>144126</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>39,4%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86243</t>
+          <t>178653</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94347</t>
+          <t>187103</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>180590</t>
+          <t>365757</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>5554</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4555</t>
+          <t>7425</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>11634</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>6014</t>
+          <t>10229</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>6945</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>8434</t>
+          <t>15120</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9079</t>
+          <t>17590</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6955</t>
+          <t>13367</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11417</t>
+          <t>22999</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17792</t>
+          <t>26826</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14678</t>
+          <t>21132</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>21388</t>
+          <t>32839</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>26871</t>
+          <t>44416</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>23298</t>
+          <t>37212</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>31400</t>
+          <t>53029</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>13666</t>
+          <t>26535</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11077</t>
+          <t>21172</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>32181</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>56579</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>29299</t>
+          <t>49808</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>37075</t>
+          <t>64642</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>46666</t>
+          <t>83114</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>42124</t>
+          <t>73396</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>51200</t>
+          <t>92374</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>37,29%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>46,94%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12251</t>
+          <t>26096</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9784</t>
+          <t>20472</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15009</t>
+          <t>32393</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>17073</t>
+          <t>32952</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>13718</t>
+          <t>26342</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>20494</t>
+          <t>39853</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>29323</t>
+          <t>59048</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>25172</t>
+          <t>50123</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>33586</t>
+          <t>68395</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>34,75%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>36455</t>
+          <t>73025</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>72419</t>
+          <t>123782</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>108874</t>
+          <t>196807</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>469</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5390</t>
+          <t>10098</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3692</t>
+          <t>6644</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7787</t>
+          <t>15214</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>5467</t>
+          <t>10566</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>7063</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>7977</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>602</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12572</t>
+          <t>21246</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>9847</t>
+          <t>16221</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>15612</t>
+          <t>28916</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>13369</t>
+          <t>22954</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10645</t>
+          <t>17489</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>16452</t>
+          <t>32289</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>18,69%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3595</t>
+          <t>12017</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2307</t>
+          <t>7345</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>18389</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>21254</t>
+          <t>38402</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>18149</t>
+          <t>31619</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>24577</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>34,94%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>24849</t>
+          <t>50419</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>21599</t>
+          <t>41467</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>28553</t>
+          <t>59987</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>34,72%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12855</t>
+          <t>34245</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>11205</t>
+          <t>28124</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>14207</t>
+          <t>39074</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>74,21%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>58,06%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21614</t>
+          <t>54589</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>18671</t>
+          <t>46419</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>25751</t>
+          <t>62797</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>50,51%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>34469</t>
+          <t>88834</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>30727</t>
+          <t>78997</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>37978</t>
+          <t>98620</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>51,42%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>57,08%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>17323</t>
+          <t>48439</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>60830</t>
+          <t>124335</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>78153</t>
+          <t>172774</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>11026</t>
+          <t>17609</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>8324</t>
+          <t>13200</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>14307</t>
+          <t>23827</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>18619</t>
+          <t>30618</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>15053</t>
+          <t>24866</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>22557</t>
+          <t>38499</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>29646</t>
+          <t>48227</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>25079</t>
+          <t>40210</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>35059</t>
+          <t>58388</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>3,81%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>51419</t>
+          <t>99085</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>45557</t>
+          <t>86125</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>57547</t>
+          <t>112925</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>77986</t>
+          <t>130235</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>71765</t>
+          <t>116504</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>85644</t>
+          <t>144124</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>129405</t>
+          <t>229320</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>120165</t>
+          <t>211663</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>138512</t>
+          <t>249339</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>16,28%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>151204</t>
+          <t>295541</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>143244</t>
+          <t>275707</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>159357</t>
+          <t>313709</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>41,49%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>171345</t>
+          <t>322962</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>161936</t>
+          <t>303819</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>179568</t>
+          <t>342868</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,51%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>322549</t>
+          <t>618504</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>311025</t>
+          <t>592284</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>334449</t>
+          <t>644726</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>43,08%</t>
+          <t>40,39%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>42,11%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>131610</t>
+          <t>318345</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>124193</t>
+          <t>299157</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>140250</t>
+          <t>339939</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>135438</t>
+          <t>316813</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>127385</t>
+          <t>296519</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>144367</t>
+          <t>338262</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>37,04%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>267048</t>
+          <t>635158</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>255720</t>
+          <t>607621</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>279643</t>
+          <t>661719</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>43,22%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>345259</t>
+          <t>730580</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>403388</t>
+          <t>800629</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>748647</t>
+          <t>1531209</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15266</t>
+          <t>15460</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>5285</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14686</t>
+          <t>14571</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12043</t>
+          <t>11435</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>27220</t>
+          <t>26277</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35335</t>
+          <t>35160</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62174</t>
+          <t>64072</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27345</t>
+          <t>28009</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45305</t>
+          <t>46555</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>66342</t>
+          <t>67217</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>100103</t>
+          <t>99443</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,94%</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>160597</t>
+          <t>161508</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>201104</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,84%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>110054</t>
+          <t>111609</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>139040</t>
+          <t>142020</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>37,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>47,51%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>283346</t>
+          <t>283433</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>330996</t>
+          <t>334115</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>50,2%</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>109858</t>
+          <t>111960</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149329</t>
+          <t>151545</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>113453</t>
+          <t>113094</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>143199</t>
+          <t>142623</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>47,91%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>235197</t>
+          <t>234620</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>282679</t>
+          <t>285516</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>42,9%</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13486</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7449</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>5907</t>
+          <t>6402</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>16328</t>
+          <t>18169</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23269</t>
+          <t>22909</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43468</t>
+          <t>42971</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23490</t>
+          <t>23552</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>39389</t>
+          <t>39769</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>50399</t>
+          <t>50123</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>76192</t>
+          <t>74943</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>133585</t>
+          <t>135482</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>171793</t>
+          <t>174139</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,01%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>121351</t>
+          <t>120597</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>149203</t>
+          <t>148113</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>57,37%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>263571</t>
+          <t>266651</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>313807</t>
+          <t>310241</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>53,11%</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>113767</t>
+          <t>110760</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>152701</t>
+          <t>150668</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>77828</t>
+          <t>77964</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>104189</t>
+          <t>105111</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>197162</t>
+          <t>199873</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>247711</t>
+          <t>245401</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>42,01%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25183</t>
+          <t>25351</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11731</t>
+          <t>11307</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5234</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>35367</t>
+          <t>34269</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,98%</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>14311</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100458</t>
+          <t>102716</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17440</t>
+          <t>17880</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32810</t>
+          <t>32707</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>21847</t>
+          <t>26179</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>131313</t>
+          <t>130113</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,71%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>209525</t>
+          <t>208029</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>439508</t>
+          <t>432842</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32130</t>
+          <t>31689</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>48417</t>
+          <t>46742</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>243708</t>
+          <t>245328</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>517438</t>
+          <t>503598</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>87,89%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18798</t>
+          <t>21976</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>151270</t>
+          <t>149535</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20070</t>
+          <t>20117</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34484</t>
+          <t>35035</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>30495</t>
+          <t>35603</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>176716</t>
+          <t>173604</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15162</t>
+          <t>16167</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32533</t>
+          <t>33707</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5198</t>
+          <t>5634</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24312</t>
+          <t>24870</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21066</t>
+          <t>21152</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>51565</t>
+          <t>51225</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6763,7 +6763,7 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>77043</t>
+          <t>78472</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>112251</t>
+          <t>112457</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>29026</t>
+          <t>33008</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116326</t>
+          <t>115141</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>98890</t>
+          <t>91646</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>212860</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>204509</t>
+          <t>203528</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>254100</t>
+          <t>252314</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>47,39%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>284893</t>
+          <t>288514</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>535059</t>
+          <t>535031</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>506199</t>
+          <t>507789</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>855424</t>
+          <t>854030</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>72,79%</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>167711</t>
+          <t>165564</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>219260</t>
+          <t>218339</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>61461</t>
+          <t>61986</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>220886</t>
+          <t>219036</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>194890</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>417069</t>
+          <t>419601</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>35,76%</t>
         </is>
       </c>
     </row>
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>4969</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>16476</t>
+          <t>16366</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>14201</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>35615</t>
+          <t>35714</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>23358</t>
+          <t>24031</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>47479</t>
+          <t>46769</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>19934</t>
+          <t>20109</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39881</t>
+          <t>38574</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>52555</t>
+          <t>55709</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>116277</t>
+          <t>115883</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>83300</t>
+          <t>79033</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>143555</t>
+          <t>143922</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>76718</t>
+          <t>75250</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>107188</t>
+          <t>107832</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>173356</t>
+          <t>176014</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>306691</t>
+          <t>305428</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>40,67%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>262373</t>
+          <t>263704</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>402870</t>
+          <t>414815</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>64,97%</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>67111</t>
+          <t>66599</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100290</t>
+          <t>101476</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>47554</t>
+          <t>46977</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>110517</t>
+          <t>109517</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>115262</t>
+          <t>113289</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>201070</t>
+          <t>201964</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,63%</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>2885</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>29832</t>
+          <t>30074</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>48898</t>
+          <t>48302</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>31127</t>
+          <t>30231</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>50944</t>
+          <t>49482</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,52%</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11810</t>
+          <t>12457</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>87289</t>
+          <t>88816</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>121431</t>
+          <t>123953</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>93514</t>
+          <t>93364</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>130702</t>
+          <t>131980</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>20,06%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>25786</t>
+          <t>25832</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>59759</t>
+          <t>59409</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>200407</t>
+          <t>201231</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>244205</t>
+          <t>246207</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>50,12%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>237820</t>
+          <t>236597</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>295822</t>
+          <t>291906</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>44,37%</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>101039</t>
+          <t>100683</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>135907</t>
+          <t>135392</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>81,5%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>105151</t>
+          <t>104644</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>148923</t>
+          <t>150089</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>211830</t>
+          <t>213287</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>277173</t>
+          <t>278097</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>42,27%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>39056</t>
+          <t>38721</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>75426</t>
+          <t>74517</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>71199</t>
+          <t>69854</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>118320</t>
+          <t>116506</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>124767</t>
+          <t>124954</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>186650</t>
+          <t>187309</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>168829</t>
+          <t>174353</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>298153</t>
+          <t>296143</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>254196</t>
+          <t>259341</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>415829</t>
+          <t>414774</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>493440</t>
+          <t>479613</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>696097</t>
+          <t>694116</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>16,17%</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>888196</t>
+          <t>890631</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1379321</t>
+          <t>1368006</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>66,27%</t>
+          <t>65,73%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>1008450</t>
+          <t>1014750</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>1481958</t>
+          <t>1478682</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1933249</t>
+          <t>1948814</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>2600101</t>
+          <t>2603705</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>60,66%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>490641</t>
+          <t>484984</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>841807</t>
+          <t>836928</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>425612</t>
+          <t>418119</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>687057</t>
+          <t>685039</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1067410</t>
+          <t>1067684</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1493889</t>
+          <t>1489893</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>34,71%</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13416,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7476</t>
+          <t>7117</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13471,7 +13471,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5459</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12203</t>
+          <t>13392</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -13501,12 +13501,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15717</t>
+          <t>15509</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27072</t>
+          <t>26416</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14828</t>
+          <t>14479</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25785</t>
+          <t>26045</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>32627</t>
+          <t>32347</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>48969</t>
+          <t>49049</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75121</t>
+          <t>75607</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93681</t>
+          <t>93209</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,53%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -13677,12 +13677,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>82624</t>
+          <t>82553</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>101948</t>
+          <t>102126</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -13692,12 +13692,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>164445</t>
+          <t>164158</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>190008</t>
+          <t>190835</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>39,46%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>45,87%</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86811</t>
+          <t>87413</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>105532</t>
+          <t>106041</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -13770,12 +13770,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,32%</t>
+          <t>51,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>84134</t>
+          <t>84473</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>103114</t>
+          <t>103486</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>49,01%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>176690</t>
+          <t>176123</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>204218</t>
+          <t>204383</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>49,13%</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3687</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11683</t>
+          <t>11228</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14035,12 +14035,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>5803</t>
+          <t>6053</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14610</t>
+          <t>15325</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14070,12 +14070,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -14098,12 +14098,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11277</t>
+          <t>11425</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21582</t>
+          <t>22054</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23548</t>
+          <t>23558</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36976</t>
+          <t>36183</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14148,12 +14148,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37336</t>
+          <t>38198</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>55061</t>
+          <t>55278</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51361</t>
+          <t>50978</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66484</t>
+          <t>66086</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>52,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73050</t>
+          <t>73296</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90784</t>
+          <t>90792</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>53,7%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14281,12 +14281,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>128047</t>
+          <t>128979</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>150567</t>
+          <t>151648</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>51,58%</t>
         </is>
       </c>
     </row>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39384</t>
+          <t>39019</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54713</t>
+          <t>55278</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14339,12 +14339,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14359,12 +14359,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>43355</t>
+          <t>43164</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59689</t>
+          <t>59188</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14374,12 +14374,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>88699</t>
+          <t>86453</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>110124</t>
+          <t>108985</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>37,07%</t>
         </is>
       </c>
     </row>
@@ -14554,12 +14554,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13914</t>
+          <t>14272</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>5156</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>15016</t>
+          <t>15176</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -14624,12 +14624,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11701</t>
+          <t>11513</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25011</t>
+          <t>25448</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15678</t>
+          <t>15366</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29114</t>
+          <t>28757</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -14702,12 +14702,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14771</t>
+          <t>14038</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25732</t>
+          <t>25354</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -14737,12 +14737,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>32369</t>
+          <t>33227</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>51219</t>
+          <t>51231</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
@@ -14780,12 +14780,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33405</t>
+          <t>33350</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>48407</t>
+          <t>48157</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -14815,12 +14815,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14204</t>
+          <t>14027</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25677</t>
+          <t>26131</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -14830,12 +14830,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -14850,12 +14850,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>50491</t>
+          <t>50663</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>69508</t>
+          <t>69799</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>45,45%</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19388</t>
+          <t>20525</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33633</t>
+          <t>33553</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -14908,12 +14908,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -14928,12 +14928,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5383</t>
+          <t>5714</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14075</t>
+          <t>14339</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -14943,12 +14943,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>27842</t>
+          <t>27587</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>44427</t>
+          <t>43426</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12021</t>
+          <t>12011</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15138,12 +15138,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6785</t>
+          <t>6624</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20307</t>
+          <t>20424</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15173,12 +15173,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -15193,12 +15193,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12246</t>
+          <t>12337</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28551</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -15208,12 +15208,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,66%</t>
         </is>
       </c>
     </row>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25475</t>
+          <t>25868</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>42154</t>
+          <t>42840</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15251,12 +15251,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15271,12 +15271,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>29465</t>
+          <t>29500</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>46190</t>
+          <t>47783</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>59456</t>
+          <t>58049</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>83611</t>
+          <t>82783</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>25,7%</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>58312</t>
+          <t>57703</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>79079</t>
+          <t>79432</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15364,12 +15364,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>67872</t>
+          <t>67922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88694</t>
+          <t>88780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15399,12 +15399,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>130692</t>
+          <t>132462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>161085</t>
+          <t>162033</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>50,31%</t>
         </is>
       </c>
     </row>
@@ -15462,12 +15462,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45893</t>
+          <t>45931</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>66602</t>
+          <t>66926</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -15497,12 +15497,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25101</t>
+          <t>24406</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>39722</t>
+          <t>38622</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>74433</t>
+          <t>75125</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>100951</t>
+          <t>101435</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -15547,12 +15547,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>31,5%</t>
         </is>
       </c>
     </row>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>3964</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -15727,12 +15727,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>6655</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>19042</t>
+          <t>18269</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -15742,12 +15742,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>7649</t>
+          <t>7639</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20021</t>
+          <t>20842</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -15782,7 +15782,7 @@
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>14,07%</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10062</t>
+          <t>9828</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>19104</t>
+          <t>19452</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>33127</t>
+          <t>32835</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>23582</t>
+          <t>24122</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>39702</t>
+          <t>40551</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,37%</t>
         </is>
       </c>
     </row>
@@ -15918,12 +15918,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21873</t>
+          <t>21994</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33841</t>
+          <t>34335</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -15933,12 +15933,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>40,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>63,93%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>37855</t>
+          <t>38593</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>54797</t>
+          <t>55154</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>40,08%</t>
+          <t>40,86%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>58,02%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>65099</t>
+          <t>63396</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>85332</t>
+          <t>83920</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>56,65%</t>
         </is>
       </c>
     </row>
@@ -16031,12 +16031,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13702</t>
+          <t>13195</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25865</t>
+          <t>24892</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16066,12 +16066,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>17421</t>
+          <t>16311</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>23471</t>
+          <t>22698</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>38183</t>
+          <t>38477</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>25,97%</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>280</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16296,12 +16296,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3238</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>10887</t>
+          <t>11007</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16311,12 +16311,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3175</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>11132</t>
+          <t>11060</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3273</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11628</t>
+          <t>12100</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16389,12 +16389,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6367</t>
+          <t>6351</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>16207</t>
+          <t>15934</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16444,12 +16444,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>11479</t>
+          <t>11776</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>23647</t>
+          <t>23734</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>23,76%</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>8168</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>19345</t>
+          <t>18989</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>52,93%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>18987</t>
+          <t>18619</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>30009</t>
+          <t>29573</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>47,37%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>30152</t>
+          <t>30190</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>45173</t>
+          <t>44957</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -16572,12 +16572,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>45,0%</t>
         </is>
       </c>
     </row>
@@ -16600,12 +16600,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>12469</t>
+          <t>11473</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>21926</t>
+          <t>21861</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -16635,12 +16635,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>17764</t>
+          <t>17836</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>28519</t>
+          <t>28680</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16650,12 +16650,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -16670,12 +16670,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>32165</t>
+          <t>32557</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>47219</t>
+          <t>47747</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>47,8%</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16830,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17088</t>
+          <t>16956</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>32065</t>
+          <t>31132</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16845,12 +16845,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -16865,12 +16865,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>38848</t>
+          <t>38811</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>61712</t>
+          <t>62427</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16880,12 +16880,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>59153</t>
+          <t>61137</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>89427</t>
+          <t>88276</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>89565</t>
+          <t>89764</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>118027</t>
+          <t>120282</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16958,12 +16958,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>126863</t>
+          <t>126465</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>161188</t>
+          <t>159916</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16993,12 +16993,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>224530</t>
+          <t>225294</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>266785</t>
+          <t>268719</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17028,12 +17028,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,74%</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>270897</t>
+          <t>273690</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>311900</t>
+          <t>311403</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>45,79%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>322463</t>
+          <t>320278</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>363382</t>
+          <t>360661</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17106,12 +17106,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>603085</t>
+          <t>605036</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>661448</t>
+          <t>664442</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>46,35%</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>240059</t>
+          <t>242137</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>280147</t>
+          <t>279158</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17184,12 +17184,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>41,19%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -17204,12 +17204,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>201728</t>
+          <t>202336</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>237470</t>
+          <t>238334</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -17239,12 +17239,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>454099</t>
+          <t>455607</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>507754</t>
+          <t>506284</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -17254,12 +17254,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,31%</t>
         </is>
       </c>
     </row>
